--- a/Robot Facturación Materia Prima/Config/Dia_Feriado.xlsx
+++ b/Robot Facturación Materia Prima/Config/Dia_Feriado.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Feriado</t>
   </si>
@@ -33,6 +33,9 @@
   </si>
   <si>
     <t>dd/mm/aaaa</t>
+  </si>
+  <si>
+    <t>17/11/2022</t>
   </si>
 </sst>
 </file>
@@ -374,7 +377,9 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
+      <c r="A2" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="B2" t="s">
         <v>2</v>
       </c>
